--- a/doc/二进制文件定义.xlsx
+++ b/doc/二进制文件定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,15 +218,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-32767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-32767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-65535（18个小时）</t>
+    <t>0-32767（9个小时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-65535</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,8 +378,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,7 +574,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="45">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -587,6 +595,8 @@
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -607,6 +617,8 @@
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -901,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1186,10 +1198,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -1236,10 +1248,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1281,7 +1293,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1332,14 +1344,14 @@
         <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <f>SUM(D21:D24)</f>
-        <v>88</v>
+        <f>SUM(D22:D24)</f>
+        <v>72</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1393,7 +1405,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1454,14 +1466,14 @@
         <v>23</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <f>SUM(D28:D32)</f>
-        <v>104</v>
+        <f>SUM(D29:D32)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4">
